--- a/biology/Médecine/Grille_d'Amsler/Grille_d'Amsler.xlsx
+++ b/biology/Médecine/Grille_d'Amsler/Grille_d'Amsler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grille_d%27Amsler</t>
+          <t>Grille_d'Amsler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La grille d'Amsler, que l'on utilise depuis 1945, est une grille de lignes horizontales et verticales, utilisée pour évaluer la partie centrale du champ visuel d'une personne. C'est un outil de diagnostic ; elle aide à détecter les perturbations visuelles dues à des changements au niveau de la rétine, en particulier la macula (par exemple dégénérescence maculaire), ainsi que du nerf optique et des voies visuelles du cerveau.
 Les ophtalmologues et les opticiens peuvent fournir une grille d'Amsler pour tester sa vue à la maison.
